--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1954746.427214978</v>
+        <v>1953423.863403041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948784</v>
+        <v>5866991.033948783</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7607676.096535486</v>
+        <v>7607676.096535488</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>253.8998584422224</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>361.5592026662933</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.7235636808312</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>70.07178186912461</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -907,16 +907,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>64.7895045194165</v>
       </c>
       <c r="G5" t="n">
-        <v>244.1304290465545</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.9656547788545</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>143.4115540199569</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>48.1642864706289</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>391.8801568088066</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>266.3192922262126</v>
+        <v>217.6137824053166</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>346.3533159897248</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -1548,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.19374650488164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>222.5840839156245</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>13.88126300749902</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>98.41092133933182</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I20" t="n">
-        <v>59.82422708687721</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>28.59425843945865</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>179.4187119430209</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>212.9935439646434</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>128.5387840091698</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2575,7 +2575,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U26" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>66.07896560696121</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>118.8502774209935</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>399.0316474962607</v>
       </c>
       <c r="G29" t="n">
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.234755280439</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>66.07896560696121</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.8250266956711</v>
@@ -3009,13 +3009,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>123.20850826228</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V32" t="n">
-        <v>119.6389231920607</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>66.07896560696116</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>134.7540612136383</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447158</v>
       </c>
       <c r="H35" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V35" t="n">
-        <v>119.6389231920598</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>137.2548393568689</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>148.2489773605057</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>112.8724405582094</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>309.4445282291076</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
         <v>219.234755280439</v>
@@ -3562,7 +3562,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920607</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>231.5461902849385</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>46.26883101343752</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>320.1456682871118</v>
       </c>
       <c r="G41" t="n">
         <v>404.4697473695408</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.234755280439</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>169.9367079279122</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>160.2222321506109</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>112.9442781751876</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.8859792091497</v>
+        <v>71.42047856476513</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>169.9367079279122</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.07455797629557</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>102.7445979019804</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1946.792430650117</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C2" t="n">
-        <v>1690.327927173125</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4363,19 +4363,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.973206274203</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1014.752890035065</v>
+        <v>272.0393079522725</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>272.0393079522725</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>112.5446632751825</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.817095773278</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.817095773278</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="W4" t="n">
-        <v>1048.817095773278</v>
+        <v>684.4747129575521</v>
       </c>
       <c r="X4" t="n">
-        <v>1048.817095773278</v>
+        <v>684.4747129575521</v>
       </c>
       <c r="Y4" t="n">
-        <v>1048.817095773278</v>
+        <v>459.7390143463168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>408.5107732503154</v>
+        <v>936.785241691741</v>
       </c>
       <c r="C5" t="n">
-        <v>402.4265866039896</v>
+        <v>526.6606510050111</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0030607374542</v>
+        <v>526.2371251384757</v>
       </c>
       <c r="E5" t="n">
-        <v>391.703249294755</v>
+        <v>515.9373136957764</v>
       </c>
       <c r="F5" t="n">
-        <v>374.7132412888466</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4573,19 +4573,19 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1603.135651610684</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1219.375350745852</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X5" t="n">
-        <v>818.7319529148049</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y5" t="n">
-        <v>818.7319529148049</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.3725408241454</v>
+        <v>641.31505061373</v>
       </c>
       <c r="C7" t="n">
-        <v>191.3725408241454</v>
+        <v>470.2216781754465</v>
       </c>
       <c r="D7" t="n">
-        <v>191.3725408241454</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E7" t="n">
-        <v>191.3725408241454</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1057.729498166676</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>778.6598336755503</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>540.3159715352338</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.5802729239985</v>
+        <v>829.0147570077744</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.902144725525</v>
+        <v>1285.591565793851</v>
       </c>
       <c r="C8" t="n">
-        <v>509.7775540387951</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D8" t="n">
-        <v>509.3540281722597</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E8" t="n">
-        <v>460.703233757483</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F8" t="n">
         <v>443.7132257515746</v>
@@ -4804,52 +4804,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>733.4074053521598</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L8" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1330.123324390014</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.123324390014</v>
+        <v>1291.772341417937</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>377.4895839572943</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C10" t="n">
-        <v>206.3962115190108</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D10" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1302.154596163369</v>
+        <v>1351.35208083094</v>
       </c>
       <c r="V10" t="n">
-        <v>1028.26885110289</v>
+        <v>1077.466335770462</v>
       </c>
       <c r="W10" t="n">
-        <v>1028.26885110289</v>
+        <v>798.3966712793365</v>
       </c>
       <c r="X10" t="n">
-        <v>789.9249889625739</v>
+        <v>560.0528091390199</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.1892903513386</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2494.579294402201</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.454703715471</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
         <v>1734.602869382415</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U11" t="n">
-        <v>4439.978400477999</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V11" t="n">
-        <v>4090.140845814479</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>3706.380544949648</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>3305.7371471186</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2904.80047406669</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>685.9422345323867</v>
+        <v>745.826042287315</v>
       </c>
       <c r="C13" t="n">
-        <v>685.9422345323867</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D13" t="n">
-        <v>526.4475898552967</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E13" t="n">
-        <v>526.4475898552967</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1619.416587740885</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1433.024819620796</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1193.476080597498</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>910.677933143622</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>910.677933143622</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W13" t="n">
-        <v>910.677933143622</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X13" t="n">
-        <v>910.677933143622</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="Y13" t="n">
-        <v>685.9422345323867</v>
+        <v>933.5257486813593</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5466,22 +5466,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.62111652612</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>1370.277254385804</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4494.590496051882</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677.9806222626885</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>506.887249824405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>506.887249824405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>506.887249824405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>342.2561239349963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5706,19 +5706,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.024190797049</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>865.6803286567329</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>865.6803286567329</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455812</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769082</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862143</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790395</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F20" t="n">
-        <v>873.3089913790395</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G20" t="n">
-        <v>464.5807072718717</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H20" t="n">
-        <v>153.6722098995897</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.6973252721</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.63683353161</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.799278868091</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003259</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172212</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120302</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
         <v>184.7395020346666</v>
@@ -5828,31 +5828,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.24369769062281</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851895</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.0212189905885</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>924.0212189905885</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>764.5265743134985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>603.615759181818</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>438.9846332924093</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>271.7342422179527</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>122.1267870234093</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
         <v>107.3262470958333</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1162.365081130905</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1162.365081130905</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>924.0212189905885</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>924.0212189905885</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C23" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D23" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F23" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G23" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H23" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I23" t="n">
         <v>97.41996410676373</v>
@@ -5992,22 +5992,22 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L23" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M23" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N23" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q23" t="n">
         <v>4819.791607344925</v>
@@ -6016,25 +6016,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M24" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N24" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.7227187698359</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C25" t="n">
-        <v>749.6293463315524</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D25" t="n">
-        <v>590.1347016544623</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E25" t="n">
-        <v>429.2238865227819</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F25" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G25" t="n">
         <v>97.41996410676373</v>
@@ -6153,19 +6153,19 @@
         <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M25" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N25" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
         <v>1702.21247802243</v>
@@ -6174,25 +6174,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T25" t="n">
-        <v>1462.995279339934</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U25" t="n">
-        <v>1462.995279339934</v>
+        <v>1062.810778663647</v>
       </c>
       <c r="V25" t="n">
-        <v>1462.995279339934</v>
+        <v>788.9250336031691</v>
       </c>
       <c r="W25" t="n">
-        <v>1462.995279339934</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.158123775116</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y25" t="n">
-        <v>1108.42242516388</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C26" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D26" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F26" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G26" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H26" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I26" t="n">
         <v>97.41996410676371</v>
@@ -6229,7 +6229,7 @@
         <v>365.99504637325</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6238,10 +6238,10 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P26" t="n">
         <v>4480.322041270213</v>
@@ -6253,25 +6253,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U26" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V26" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W26" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X26" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y26" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.4707493804946</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C28" t="n">
-        <v>217.4707493804946</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D28" t="n">
         <v>97.41996410676371</v>
@@ -6390,19 +6390,19 @@
         <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M28" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N28" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
         <v>1702.21247802243</v>
@@ -6411,25 +6411,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1517.172971249823</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1277.955772567327</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>995.1618575433336</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V28" t="n">
-        <v>721.2761124828555</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W28" t="n">
-        <v>442.2064479917299</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X28" t="n">
-        <v>442.2064479917299</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.4707493804946</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092806</v>
+        <v>2447.103198462591</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406076</v>
+        <v>2036.978607775861</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499137</v>
+        <v>1632.514677868921</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1218.174462385818</v>
       </c>
       <c r="F29" t="n">
-        <v>665.8048419697211</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G29" t="n">
-        <v>257.2495415964476</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I29" t="n">
         <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6490,25 +6490,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168604</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505085</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640253</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809206</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757296</v>
+        <v>2857.32437812708</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>769.2575309382117</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>1450.041880175761</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>1450.041880175761</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1450.041880175761</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>1450.041880175761</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6627,46 +6627,46 @@
         <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M31" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N31" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958426</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.17198727593</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>913.3780722519368</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V31" t="n">
-        <v>788.9250336031691</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W31" t="n">
-        <v>509.8553691120434</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X31" t="n">
-        <v>509.8553691120434</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y31" t="n">
-        <v>285.1196705008081</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732505</v>
+        <v>365.9950463732499</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L32" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M32" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N32" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q32" t="n">
         <v>4819.791607344925</v>
@@ -6727,13 +6727,13 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968402</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210383</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V32" t="n">
         <v>4140.315699004907</v>
@@ -6785,13 +6785,13 @@
         <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>769.2575309382119</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>769.2575309382119</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>769.2575309382119</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
         <v>1161.994247859146</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.480057587323</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C34" t="n">
-        <v>845.38668514904</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D34" t="n">
-        <v>685.8920404719499</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E34" t="n">
-        <v>524.9812253402695</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F34" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I34" t="n">
         <v>97.41996410676373</v>
@@ -6864,46 +6864,46 @@
         <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M34" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N34" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958426</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="T34" t="n">
-        <v>1435.389185958426</v>
+        <v>1396.248849433913</v>
       </c>
       <c r="U34" t="n">
-        <v>1152.595270934433</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V34" t="n">
-        <v>1016.480057587323</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.480057587323</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.480057587323</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.480057587323</v>
+        <v>97.41996410676373</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C35" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D35" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F35" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G35" t="n">
         <v>486.2396990962708</v>
@@ -6940,7 +6940,7 @@
         <v>365.99504637325</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
@@ -6949,7 +6949,7 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
         <v>3926.78508420296</v>
@@ -6973,16 +6973,16 @@
         <v>4261.163096168604</v>
       </c>
       <c r="V35" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X35" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>833.0698273472251</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>677.2693377557588</v>
+        <v>1002.283164427591</v>
       </c>
       <c r="C37" t="n">
-        <v>677.2693377557588</v>
+        <v>863.641912551966</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2693377557588</v>
+        <v>704.147267874876</v>
       </c>
       <c r="E37" t="n">
-        <v>677.2693377557588</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="F37" t="n">
-        <v>527.5228959774702</v>
+        <v>378.6053268537867</v>
       </c>
       <c r="G37" t="n">
-        <v>360.3500994508607</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H37" t="n">
         <v>211.4325303271773</v>
@@ -7101,19 +7101,19 @@
         <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
         <v>1702.21247802243</v>
@@ -7128,19 +7128,19 @@
         <v>1702.21247802243</v>
       </c>
       <c r="U37" t="n">
-        <v>1419.418562998436</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V37" t="n">
-        <v>1419.418562998436</v>
+        <v>1428.326732961952</v>
       </c>
       <c r="W37" t="n">
-        <v>1140.348898507311</v>
+        <v>1428.326732961952</v>
       </c>
       <c r="X37" t="n">
-        <v>902.0050363669941</v>
+        <v>1189.982870821636</v>
       </c>
       <c r="Y37" t="n">
-        <v>677.2693377557588</v>
+        <v>1189.982870821636</v>
       </c>
     </row>
     <row r="38">
@@ -7177,22 +7177,22 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q38" t="n">
         <v>4819.791607344925</v>
@@ -7201,25 +7201,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T38" t="n">
-        <v>4649.548957580168</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U38" t="n">
-        <v>4392.50230453839</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V38" t="n">
-        <v>4042.66474987487</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W38" t="n">
-        <v>3658.904449010039</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X38" t="n">
-        <v>3258.261051178991</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y38" t="n">
-        <v>2857.324378127081</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>908.7294727618387</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="C40" t="n">
-        <v>737.6361003235552</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="D40" t="n">
-        <v>578.1414556464653</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="E40" t="n">
-        <v>578.1414556464653</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="F40" t="n">
-        <v>413.5103297570565</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G40" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H40" t="n">
         <v>97.41996410676373</v>
@@ -7338,19 +7338,19 @@
         <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O40" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
         <v>1702.21247802243</v>
@@ -7362,22 +7362,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T40" t="n">
-        <v>1462.995279339934</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U40" t="n">
-        <v>1180.20136431594</v>
+        <v>1468.327437330573</v>
       </c>
       <c r="V40" t="n">
-        <v>1180.20136431594</v>
+        <v>1194.441692270095</v>
       </c>
       <c r="W40" t="n">
-        <v>1180.20136431594</v>
+        <v>915.3720277789694</v>
       </c>
       <c r="X40" t="n">
-        <v>1133.465171373074</v>
+        <v>677.0281656386528</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.7294727618387</v>
+        <v>452.2924670274175</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>2036.978607775862</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1632.514677868922</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1218.174462385819</v>
       </c>
       <c r="F41" t="n">
         <v>894.7949994695443</v>
@@ -7408,55 +7408,55 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168604</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505085</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640253</v>
+        <v>3658.904449010039</v>
       </c>
       <c r="X41" t="n">
-        <v>3355.912000309029</v>
+        <v>3258.261051178991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2857.324378127081</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
         <v>298.803175282419</v>
@@ -7496,22 +7496,22 @@
         <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>1050.674000801944</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>1050.674000801944</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1050.674000801944</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C43" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D43" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E43" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F43" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G43" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
         <v>1145.132879486175</v>
@@ -7593,28 +7593,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U43" t="n">
-        <v>913.3780722519373</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V43" t="n">
-        <v>639.4923271914593</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W43" t="n">
-        <v>360.4226627003336</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X43" t="n">
-        <v>246.3375332304471</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y43" t="n">
-        <v>246.3375332304471</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2537.213237850827</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>2127.088647164097</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1722.624717257157</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1308.284501774054</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>887.2540897277418</v>
       </c>
       <c r="G44" t="n">
-        <v>486.2396990962708</v>
+        <v>478.6987893544682</v>
       </c>
       <c r="H44" t="n">
-        <v>177.1027713887331</v>
+        <v>169.5618616469305</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J44" t="n">
         <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7663,37 +7663,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O44" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210382</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168604</v>
+        <v>4482.612343926624</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505085</v>
+        <v>4132.774789263105</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640253</v>
+        <v>3749.014488398273</v>
       </c>
       <c r="X44" t="n">
-        <v>3355.912000309029</v>
+        <v>3348.371090567226</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.975327257119</v>
+        <v>2947.434417515316</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
         <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>298.803175282419</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>298.803175282419</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>797.8781680771655</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>797.8781680771655</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>1523.41809936609</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2102.446124327753</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
         <v>2102.446124327753</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4290.592976375075</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C46" t="n">
-        <v>4119.499603936791</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D46" t="n">
-        <v>3960.004959259701</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E46" t="n">
-        <v>3860.939749182634</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F46" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766616</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642933</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630018</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>4789.214420046788</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U46" t="n">
-        <v>4789.214420046788</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V46" t="n">
-        <v>4515.32867498631</v>
+        <v>906.3156192554629</v>
       </c>
       <c r="W46" t="n">
-        <v>4515.32867498631</v>
+        <v>627.2459547643373</v>
       </c>
       <c r="X46" t="n">
-        <v>4515.32867498631</v>
+        <v>388.9020926240207</v>
       </c>
       <c r="Y46" t="n">
-        <v>4290.592976375075</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,16 +8060,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>528.0883472030761</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,22 +8221,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>493.8215862770622</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8300,13 +8300,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730678</v>
+        <v>170.9271386512354</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>249.8886267436438</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
@@ -8473,10 +8473,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O24" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O27" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,25 +10196,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M30" t="n">
-        <v>34.34760704978731</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N30" t="n">
-        <v>29.36224035654941</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O30" t="n">
-        <v>35.95062976461627</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P30" t="n">
-        <v>366.2292506007582</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M33" t="n">
-        <v>34.34760704978731</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654941</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O33" t="n">
-        <v>432.6543842302064</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M36" t="n">
-        <v>34.34760704978731</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N36" t="n">
-        <v>772.4429102964094</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O39" t="n">
-        <v>35.95062976461627</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P39" t="n">
-        <v>316.5658600362975</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>320.4784556749617</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978728</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248782</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11378,25 +11378,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654516</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M45" t="n">
-        <v>538.463761387915</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>54.06597461814522</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81.2262446364727</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23481,7 +23481,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>13.37633960328895</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V14" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>262.3977048387154</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>187.994239071985</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,13 +23901,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>67.16696582438018</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I20" t="n">
-        <v>25.66401796922036</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>86.58832699725846</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.7002559248237</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
         <v>147.4283934324466</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>66.97243190910996</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>107.4216395097436</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U26" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>119.7437437231427</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>39.04942080932554</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>17.78846042958861</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>119.7437437231427</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>147.9383793475932</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.465500644384122</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>14.88698183152162</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>136.392826396235</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>226.700255924825</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>226.7002559248243</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>32.12759935703178</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.73583727000894</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
         <v>183.1891117048806</v>
@@ -25368,19 +25368,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>96.674439638737</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
         <v>112.8724405582094</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>48.41978558881488</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>189.6915925054759</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>96.67443963873745</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>226.7002559248248</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25803,7 +25803,7 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
         <v>112.8724405582094</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>119.7437437231425</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>123.0161453437259</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.465500644384534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>226.7002559248248</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>61.22714900406815</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>119.7437437231425</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638451.1307280293</v>
+        <v>638451.1307280294</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638451.1307280293</v>
+        <v>638451.1307280294</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656323.357692276</v>
+        <v>656323.3576922761</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656323.357692276</v>
+        <v>656323.3576922761</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656323.357692276</v>
+        <v>656323.3576922759</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656323.357692276</v>
+        <v>656323.3576922761</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656323.357692276</v>
+        <v>656323.3576922761</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656323.3576922759</v>
+        <v>656323.3576922762</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006167</v>
       </c>
       <c r="C2" t="n">
-        <v>504935.4184006168</v>
+        <v>504935.4184006165</v>
       </c>
       <c r="D2" t="n">
-        <v>504935.4184006164</v>
+        <v>504935.4184006165</v>
       </c>
       <c r="E2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="F2" t="n">
-        <v>448955.4346793954</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="G2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="H2" t="n">
-        <v>448955.4346793955</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="I2" t="n">
+        <v>463807.8694427051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>463807.8694427051</v>
+      </c>
+      <c r="K2" t="n">
+        <v>463807.8694427051</v>
+      </c>
+      <c r="L2" t="n">
         <v>463807.8694427052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463807.8694427052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>463807.869442705</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463807.8694427051</v>
       </c>
       <c r="M2" t="n">
         <v>463807.8694427051</v>
       </c>
       <c r="N2" t="n">
-        <v>463807.8694427053</v>
+        <v>463807.8694427051</v>
       </c>
       <c r="O2" t="n">
-        <v>463807.869442705</v>
+        <v>463807.8694427052</v>
       </c>
       <c r="P2" t="n">
         <v>463807.8694427051</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588468</v>
+        <v>45948.62261588483</v>
       </c>
       <c r="J3" t="n">
         <v>136594.8008058949</v>
@@ -26429,7 +26429,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="F4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="G4" t="n">
         <v>74374.35696474131</v>
@@ -26450,10 +26450,10 @@
         <v>73588.2819417936</v>
       </c>
       <c r="M4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="N4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="O4" t="n">
         <v>73588.2819417936</v>
@@ -26487,7 +26487,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
         <v>74967.83978868564</v>
@@ -26508,10 +26508,10 @@
         <v>74967.83978868564</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="P5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61208.1596613129</v>
+        <v>61208.15966131302</v>
       </c>
       <c r="C6" t="n">
-        <v>236163.6695544271</v>
+        <v>236163.6695544269</v>
       </c>
       <c r="D6" t="n">
-        <v>236163.6695544268</v>
+        <v>236163.6695544269</v>
       </c>
       <c r="E6" t="n">
-        <v>111586.1045703376</v>
+        <v>111405.5239776886</v>
       </c>
       <c r="F6" t="n">
-        <v>303715.8674697808</v>
+        <v>303535.2868771317</v>
       </c>
       <c r="G6" t="n">
-        <v>303715.8674697808</v>
+        <v>303535.2868771318</v>
       </c>
       <c r="H6" t="n">
-        <v>303715.8674697808</v>
+        <v>303535.2868771316</v>
       </c>
       <c r="I6" t="n">
-        <v>269303.1250963413</v>
+        <v>269170.4555835736</v>
       </c>
       <c r="J6" t="n">
-        <v>178656.946906331</v>
+        <v>178524.2773935634</v>
       </c>
       <c r="K6" t="n">
-        <v>315251.7477122258</v>
+        <v>315119.0781994585</v>
       </c>
       <c r="L6" t="n">
-        <v>315251.7477122258</v>
+        <v>315119.0781994584</v>
       </c>
       <c r="M6" t="n">
-        <v>154893.2972115432</v>
+        <v>154760.6276987757</v>
       </c>
       <c r="N6" t="n">
-        <v>315251.7477122261</v>
+        <v>315119.0781994583</v>
       </c>
       <c r="O6" t="n">
-        <v>315251.7477122258</v>
+        <v>315119.0781994585</v>
       </c>
       <c r="P6" t="n">
-        <v>315251.7477122259</v>
+        <v>315119.0781994584</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="P3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.5994067681289</v>
       </c>
     </row>
     <row r="4">
@@ -26828,10 +26828,10 @@
         <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700254</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>152.1234863376401</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>35.36810365509751</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0991456492727</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>89.22992511123911</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27599,13 +27599,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>352.0306034064328</v>
       </c>
       <c r="G5" t="n">
-        <v>160.5105722195416</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.85705455124943</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>14.48814421036218</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27788,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>362.0325268576433</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>5.047149512584213</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28067,19 +28067,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>13.65087375312453</v>
+        <v>62.35638357402047</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L23" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O23" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745517</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471091</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L26" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O26" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745517</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471091</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L29" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O29" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745517</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471091</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L32" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O32" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745517</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471091</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L35" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O35" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745517</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471091</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L38" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O38" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745517</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471091</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O46" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,16 +34780,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>474.8949538093261</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>500.9700927793178</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="L8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P23" t="n">
         <v>559.1282394618715</v>
@@ -36381,7 +36381,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P26" t="n">
         <v>559.1282394618715</v>
@@ -36618,7 +36618,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P29" t="n">
         <v>559.1282394618715</v>
@@ -36855,7 +36855,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>203.4173850259144</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>475.2064198543361</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>329.4667191061694</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P32" t="n">
         <v>559.1282394618715</v>
@@ -37092,7 +37092,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>203.4173850259144</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>475.2064198543361</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>396.7037544655901</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>35.54713057581763</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P35" t="n">
         <v>559.1282394618715</v>
@@ -37329,7 +37329,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>743.0806699398601</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P38" t="n">
         <v>559.1282394618715</v>
@@ -37566,7 +37566,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>279.8033285417088</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>284.2590604684165</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623254</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M45" t="n">
-        <v>504.1161543381277</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>584.8767928905686</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>35.54713057581764</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
